--- a/src/exports/empresas_orden_az.xlsx.xlsx
+++ b/src/exports/empresas_orden_az.xlsx.xlsx
@@ -430,75 +430,87 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>67bf38f0a9c0f101fb8c8295</v>
+      </c>
       <c r="B2" t="str">
+        <v>Pollo Grangero</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Medio</v>
+      </c>
+      <c r="D2">
+        <v>2010</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Food</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Empresa de comida.</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45714.41199854167</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45714.430585925926</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>67bf3963a9c0f101fb8c82b1</v>
+      </c>
+      <c r="B3" t="str">
         <v>agroplus</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
         <v>Low</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2008</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E3" t="str">
         <v>Agriculture</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F3" t="str">
         <v>Empresa de innovación agrícola con productos para cultivos sostenibles.</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>45714.413328703704</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>45714.413328703704</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="str">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>67bf3931a9c0f101fb8c82a5</v>
+      </c>
+      <c r="B4" t="str">
         <v>autoworld</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Medium</v>
-      </c>
-      <c r="D3">
-        <v>1980</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Automotive</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Fabricante y distribuidor de automóviles a nivel internacional.</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45714.412749166666</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45714.412749166666</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="str">
-        <v>campero</v>
       </c>
       <c r="C4" t="str">
         <v>Medium</v>
       </c>
       <c r="D4">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="E4" t="str">
-        <v>Food</v>
+        <v>Automotive</v>
       </c>
       <c r="F4" t="str">
-        <v>Empresa dedicada a la venta de Pollos y más.</v>
+        <v>Fabricante y distribuidor de automóviles a nivel internacional.</v>
       </c>
       <c r="G4" s="1">
-        <v>45714.41199854167</v>
+        <v>45714.412749166666</v>
       </c>
       <c r="H4" s="1">
-        <v>45714.41199854167</v>
+        <v>45714.412749166666</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>67bf3911a9c0f101fb8c829d</v>
+      </c>
       <c r="B5" t="str">
         <v>ecogreen</v>
       </c>
@@ -522,6 +534,9 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <v>67bf3957a9c0f101fb8c82ad</v>
+      </c>
       <c r="B6" t="str">
         <v>edusmart</v>
       </c>
@@ -545,6 +560,9 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>67bf394ca9c0f101fb8c82a9</v>
+      </c>
       <c r="B7" t="str">
         <v>fintrust</v>
       </c>
@@ -568,6 +586,9 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v>67bf3926a9c0f101fb8c82a1</v>
+      </c>
       <c r="B8" t="str">
         <v>medicare</v>
       </c>
@@ -591,6 +612,9 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>67bf3901a9c0f101fb8c8299</v>
+      </c>
       <c r="B9" t="str">
         <v>techsoft</v>
       </c>
